--- a/Docs/需求/(正式7)範本專家資料匯入 (0429綠色新增_北市天然氣計畫+綠色) - V2.xlsx
+++ b/Docs/需求/(正式7)範本專家資料匯入 (0429綠色新增_北市天然氣計畫+綠色) - V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增專家委員\33給資訊室資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7861821E-D0F8-4AD5-8CE3-2091E1C2974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC732E2-C9EE-40E9-BB6A-6E0BE828F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
   <sheets>
     <sheet name="增列專家學者資料" sheetId="5" r:id="rId1"/>
@@ -4557,27 +4557,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>手機號碼
-格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(0912******)_MobilePhone</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>傳真</t>
     </r>
     <r>
@@ -4592,6 +4571,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -4601,146 +4594,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>私人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)Email_PersonalEmail</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)Email_CorporateEmail</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>縣市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(O)City</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄉鎮市區</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(O)District</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>備註</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>如葷素</t>
     </r>
     <r>
@@ -4755,161 +4608,21 @@
   </si>
   <si>
     <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(O)Address</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>縣市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(H)City</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄉鎮市區</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(H)District</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_(H)Address</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_OfficePhone</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4947,37 +4660,305 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(02-23****** #123)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>_OfficeTelephone2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室電話
-格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(02-23****** #123)_OfficeTelephone1</t>
+      <t>(02-23****** #123)_2OfficePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手機號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_PrivatePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)Email_OfficeEmail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)Email_PrivateEmail</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縣市_CityCode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄉鎮市區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_ZIP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_OfficeAddress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縣市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_PCityCode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄉鎮市區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_PZIP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Paddress</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5772,42 +5753,42 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="24" customWidth="1"/>
     <col min="2" max="2" width="6" style="25" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="16.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="29" customWidth="1"/>
-    <col min="12" max="14" width="16.875" style="26" customWidth="1"/>
-    <col min="15" max="16" width="16.875" style="27" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16.90625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" style="29" customWidth="1"/>
+    <col min="12" max="14" width="16.90625" style="26" customWidth="1"/>
+    <col min="15" max="16" width="16.90625" style="27" customWidth="1"/>
     <col min="17" max="17" width="36" style="28" customWidth="1"/>
-    <col min="18" max="19" width="16.875" style="27" customWidth="1"/>
-    <col min="20" max="20" width="57.75" style="28" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="28" customWidth="1"/>
-    <col min="22" max="22" width="19.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="35.125" style="42" customWidth="1"/>
-    <col min="24" max="24" width="36.5" style="24" customWidth="1"/>
-    <col min="25" max="25" width="33.375" style="24" customWidth="1"/>
-    <col min="26" max="26" width="16.125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="48.5" style="25" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.90625" style="27" customWidth="1"/>
+    <col min="20" max="20" width="57.7265625" style="28" customWidth="1"/>
+    <col min="21" max="21" width="16.90625" style="28" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="35.08984375" style="42" customWidth="1"/>
+    <col min="24" max="24" width="36.453125" style="24" customWidth="1"/>
+    <col min="25" max="25" width="33.36328125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="16.08984375" style="24" customWidth="1"/>
+    <col min="27" max="27" width="48.453125" style="25" customWidth="1"/>
+    <col min="28" max="28" width="21.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="24" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -5833,43 +5814,43 @@
         <v>12</v>
       </c>
       <c r="I1" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="U1" s="45" t="s">
         <v>376</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="U1" s="45" t="s">
-        <v>381</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>13</v>
@@ -5890,7 +5871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="16">
         <v>1</v>
@@ -5957,7 +5938,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="16">
         <v>2</v>
@@ -6024,7 +6005,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16">
         <v>3</v>
@@ -6091,7 +6072,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="16">
         <v>4</v>
@@ -6156,7 +6137,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
       <c r="B6" s="16">
         <v>5</v>
@@ -6221,7 +6202,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="16">
         <v>6</v>
@@ -6284,7 +6265,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="16">
         <v>7</v>
@@ -6347,7 +6328,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="16">
         <v>8</v>
@@ -6414,7 +6395,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="16">
         <v>9</v>
@@ -6479,7 +6460,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="16">
         <v>10</v>
@@ -6546,7 +6527,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="16">
         <v>11</v>
@@ -6609,7 +6590,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="16">
         <v>12</v>
@@ -6674,7 +6655,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="16">
         <v>13</v>
@@ -6741,7 +6722,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="16">
         <v>14</v>
@@ -6808,7 +6789,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="16">
         <v>15</v>
@@ -6873,7 +6854,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="16">
         <v>16</v>
@@ -6938,7 +6919,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="16"/>
       <c r="C18" s="6"/>
@@ -6967,7 +6948,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="16"/>
       <c r="C19" s="6"/>
@@ -6996,7 +6977,7 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="16"/>
       <c r="C20" s="6"/>
@@ -7025,7 +7006,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="16"/>
     </row>
-    <row r="21" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="16"/>
       <c r="C21" s="6"/>
@@ -7054,7 +7035,7 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="16"/>
       <c r="C22" s="6"/>
@@ -7083,7 +7064,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="16"/>
       <c r="C23" s="6"/>
@@ -7112,7 +7093,7 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="16"/>
     </row>
-    <row r="24" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
       <c r="B24" s="16">
         <f>SUBTOTAL(3,$C$2:C24)*1</f>
@@ -7144,7 +7125,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19"/>
       <c r="B25" s="16">
         <f>SUBTOTAL(3,$C$2:C25)*1</f>
@@ -7176,7 +7157,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19"/>
       <c r="B26" s="16">
         <f>SUBTOTAL(3,$C$2:C26)*1</f>
@@ -7208,7 +7189,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="16">
         <f>SUBTOTAL(3,$C$2:C27)*1</f>
@@ -7240,7 +7221,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="16">
         <f>SUBTOTAL(3,$C$2:C28)*1</f>
@@ -7272,7 +7253,7 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="16"/>
     </row>
-    <row r="29" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="16">
         <f>SUBTOTAL(3,$C$2:C29)*1</f>
@@ -7304,7 +7285,7 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="16">
         <f>SUBTOTAL(3,$C$2:C30)*1</f>
@@ -7336,7 +7317,7 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
       <c r="B31" s="16">
         <f>SUBTOTAL(3,$C$2:C31)*1</f>
@@ -7368,7 +7349,7 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="16">
         <f>SUBTOTAL(3,$C$2:C32)*1</f>
@@ -7400,7 +7381,7 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
-    <row r="33" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
       <c r="B33" s="16">
         <f>SUBTOTAL(3,$C$2:C33)*1</f>
@@ -7432,7 +7413,7 @@
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
     </row>
-    <row r="34" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="16">
         <f>SUBTOTAL(3,$C$2:C34)*1</f>
@@ -7464,7 +7445,7 @@
       <c r="Z34" s="6"/>
       <c r="AA34" s="16"/>
     </row>
-    <row r="35" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19"/>
       <c r="B35" s="16">
         <f>SUBTOTAL(3,$C$2:C35)*1</f>
@@ -7496,7 +7477,7 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
     </row>
-    <row r="36" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="B36" s="16">
         <f>SUBTOTAL(3,$C$2:C36)*1</f>
@@ -7528,7 +7509,7 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
       <c r="B37" s="16">
         <f>SUBTOTAL(3,$C$2:C37)*1</f>
@@ -7560,7 +7541,7 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
     </row>
-    <row r="38" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19"/>
       <c r="B38" s="16">
         <f>SUBTOTAL(3,$C$2:C38)*1</f>
@@ -7592,7 +7573,7 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
     </row>
-    <row r="39" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
       <c r="B39" s="16">
         <f>SUBTOTAL(3,$C$2:C39)*1</f>
@@ -7624,7 +7605,7 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="16"/>
     </row>
-    <row r="40" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="16">
         <f>SUBTOTAL(3,$C$2:C40)*1</f>
@@ -7656,7 +7637,7 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
     </row>
-    <row r="41" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="19"/>
       <c r="B41" s="16">
         <f>SUBTOTAL(3,$C$2:C41)*1</f>
@@ -7688,7 +7669,7 @@
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
     </row>
-    <row r="42" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>
       <c r="B42" s="16">
         <f>SUBTOTAL(3,$C$2:C42)*1</f>
@@ -7720,7 +7701,7 @@
       <c r="Z42" s="6"/>
       <c r="AA42" s="16"/>
     </row>
-    <row r="43" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19"/>
       <c r="B43" s="16">
         <f>SUBTOTAL(3,$C$2:C43)*1</f>
@@ -7752,7 +7733,7 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
     </row>
-    <row r="44" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
       <c r="B44" s="16">
         <f>SUBTOTAL(3,$C$2:C44)*1</f>
@@ -7784,7 +7765,7 @@
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
     </row>
-    <row r="45" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
       <c r="B45" s="16">
         <f>SUBTOTAL(3,$C$2:C45)*1</f>
@@ -7816,7 +7797,7 @@
       <c r="Z45" s="6"/>
       <c r="AA45" s="16"/>
     </row>
-    <row r="46" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="19"/>
       <c r="B46" s="16">
         <f>SUBTOTAL(3,$C$2:C46)*1</f>
@@ -7848,7 +7829,7 @@
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="19"/>
       <c r="B47" s="16">
         <f>SUBTOTAL(3,$C$2:C47)*1</f>
@@ -7880,7 +7861,7 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19"/>
       <c r="B48" s="16">
         <f>SUBTOTAL(3,$C$2:C48)*1</f>
@@ -7912,7 +7893,7 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="16"/>
     </row>
-    <row r="49" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="19"/>
       <c r="B49" s="16">
         <f>SUBTOTAL(3,$C$2:C49)*1</f>
@@ -7944,7 +7925,7 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="19"/>
       <c r="B50" s="16">
         <f>SUBTOTAL(3,$C$2:C50)*1</f>
@@ -7976,7 +7957,7 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
     </row>
-    <row r="51" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="16">
         <f>SUBTOTAL(3,$C$2:C51)*1</f>
@@ -8008,7 +7989,7 @@
       <c r="Z51" s="6"/>
       <c r="AA51" s="16"/>
     </row>
-    <row r="52" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="16">
         <f>SUBTOTAL(3,$C$2:C52)*1</f>
@@ -8040,7 +8021,7 @@
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
     </row>
-    <row r="53" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19"/>
       <c r="B53" s="16">
         <f>SUBTOTAL(3,$C$2:C53)*1</f>
@@ -8072,7 +8053,7 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="19"/>
       <c r="B54" s="16">
         <f>SUBTOTAL(3,$C$2:C54)*1</f>
@@ -8104,7 +8085,7 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="16"/>
     </row>
-    <row r="55" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="19"/>
       <c r="B55" s="16">
         <f>SUBTOTAL(3,$C$2:C55)*1</f>
@@ -8136,7 +8117,7 @@
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
     </row>
-    <row r="56" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="19"/>
       <c r="B56" s="16">
         <f>SUBTOTAL(3,$C$2:C56)*1</f>
@@ -8168,7 +8149,7 @@
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
     </row>
-    <row r="57" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="19"/>
       <c r="B57" s="16">
         <f>SUBTOTAL(3,$C$2:C57)*1</f>
@@ -8200,7 +8181,7 @@
       <c r="Z57" s="6"/>
       <c r="AA57" s="16"/>
     </row>
-    <row r="58" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="19"/>
       <c r="B58" s="16">
         <f>SUBTOTAL(3,$C$2:C58)*1</f>
@@ -8232,7 +8213,7 @@
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
     </row>
-    <row r="59" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="19"/>
       <c r="B59" s="16">
         <f>SUBTOTAL(3,$C$2:C59)*1</f>
@@ -8264,7 +8245,7 @@
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
     </row>
-    <row r="60" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="16">
         <f>SUBTOTAL(3,$C$2:C60)*1</f>
@@ -8296,7 +8277,7 @@
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
     </row>
-    <row r="61" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="16">
         <f>SUBTOTAL(3,$C$2:C61)*1</f>
@@ -8328,7 +8309,7 @@
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
     </row>
-    <row r="62" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="19"/>
       <c r="B62" s="16">
         <f>SUBTOTAL(3,$C$2:C62)*1</f>
@@ -8360,7 +8341,7 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
     </row>
-    <row r="63" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12"/>
       <c r="B63" s="16">
         <f>SUBTOTAL(3,$C$2:C63)*1</f>
@@ -8392,7 +8373,7 @@
       <c r="Z63" s="6"/>
       <c r="AA63" s="21"/>
     </row>
-    <row r="64" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12"/>
       <c r="B64" s="16">
         <f>SUBTOTAL(3,$C$2:C64)*1</f>
@@ -8424,7 +8405,7 @@
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
     </row>
-    <row r="65" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12"/>
       <c r="B65" s="16">
         <f>SUBTOTAL(3,$C$2:C65)*1</f>
@@ -8456,7 +8437,7 @@
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
     </row>
-    <row r="66" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12"/>
       <c r="B66" s="16">
         <f>SUBTOTAL(3,$C$2:C66)*1</f>
@@ -8488,7 +8469,7 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12"/>
       <c r="B67" s="16">
         <f>SUBTOTAL(3,$C$2:C67)*1</f>
@@ -8520,7 +8501,7 @@
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
     </row>
-    <row r="68" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12"/>
       <c r="B68" s="16">
         <f>SUBTOTAL(3,$C$2:C68)*1</f>
@@ -8552,7 +8533,7 @@
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
     </row>
-    <row r="69" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12"/>
       <c r="B69" s="16">
         <f>SUBTOTAL(3,$C$2:C69)*1</f>
@@ -8639,21 +8620,21 @@
       <selection activeCell="C52" sqref="B52:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="69.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="69.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="32" customWidth="1"/>
     <col min="4" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21.5" x14ac:dyDescent="0.4">
       <c r="A1" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="64"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
         <v>121</v>
       </c>
@@ -8662,7 +8643,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="63" t="s">
         <v>123</v>
       </c>
@@ -8673,7 +8654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="63"/>
       <c r="B5" s="38" t="s">
         <v>125</v>
@@ -8682,7 +8663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="63"/>
       <c r="B6" s="38" t="s">
         <v>126</v>
@@ -8691,7 +8672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A7" s="63"/>
       <c r="B7" s="38" t="s">
         <v>127</v>
@@ -8700,7 +8681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A8" s="63"/>
       <c r="B8" s="38" t="s">
         <v>128</v>
@@ -8709,7 +8690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A9" s="63"/>
       <c r="B9" s="38" t="s">
         <v>129</v>
@@ -8718,7 +8699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="63"/>
       <c r="B10" s="38" t="s">
         <v>130</v>
@@ -8727,7 +8708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="63"/>
       <c r="B11" s="38" t="s">
         <v>131</v>
@@ -8736,7 +8717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="63"/>
       <c r="B12" s="38" t="s">
         <v>132</v>
@@ -8745,7 +8726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="63"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
@@ -8754,7 +8735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A14" s="63"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
@@ -8763,7 +8744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A15" s="63"/>
       <c r="B15" s="38" t="s">
         <v>135</v>
@@ -8772,7 +8753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A16" s="63"/>
       <c r="B16" s="38" t="s">
         <v>136</v>
@@ -8781,7 +8762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A17" s="63"/>
       <c r="B17" s="38" t="s">
         <v>137</v>
@@ -8790,7 +8771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A18" s="63"/>
       <c r="B18" s="38" t="s">
         <v>138</v>
@@ -8799,7 +8780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A19" s="63"/>
       <c r="B19" s="38" t="s">
         <v>139</v>
@@ -8808,7 +8789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A20" s="63"/>
       <c r="B20" s="38" t="s">
         <v>140</v>
@@ -8817,7 +8798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A21" s="63"/>
       <c r="B21" s="38" t="s">
         <v>141</v>
@@ -8826,7 +8807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A22" s="63"/>
       <c r="B22" s="38" t="s">
         <v>142</v>
@@ -8835,7 +8816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A23" s="63"/>
       <c r="B23" s="38" t="s">
         <v>143</v>
@@ -8844,7 +8825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A24" s="63" t="s">
         <v>144</v>
       </c>
@@ -8855,7 +8836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A25" s="63"/>
       <c r="B25" s="38" t="s">
         <v>146</v>
@@ -8864,7 +8845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A26" s="63"/>
       <c r="B26" s="38" t="s">
         <v>147</v>
@@ -8873,7 +8854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A27" s="63"/>
       <c r="B27" s="39" t="s">
         <v>148</v>
@@ -8882,7 +8863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A28" s="63" t="s">
         <v>149</v>
       </c>
@@ -8893,7 +8874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A29" s="63"/>
       <c r="B29" s="38" t="s">
         <v>151</v>
@@ -8902,7 +8883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A30" s="63"/>
       <c r="B30" s="38" t="s">
         <v>152</v>
@@ -8911,7 +8892,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A31" s="63"/>
       <c r="B31" s="38" t="s">
         <v>153</v>
@@ -8920,7 +8901,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A32" s="63"/>
       <c r="B32" s="38" t="s">
         <v>154</v>
@@ -8929,7 +8910,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A33" s="63"/>
       <c r="B33" s="38" t="s">
         <v>155</v>
@@ -8938,7 +8919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A34" s="63"/>
       <c r="B34" s="38" t="s">
         <v>156</v>
@@ -8947,7 +8928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A35" s="63"/>
       <c r="B35" s="38" t="s">
         <v>157</v>
@@ -8956,7 +8937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A36" s="63"/>
       <c r="B36" s="38" t="s">
         <v>158</v>
@@ -8965,7 +8946,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A37" s="63"/>
       <c r="B37" s="38" t="s">
         <v>159</v>
@@ -8974,7 +8955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A38" s="63"/>
       <c r="B38" s="38" t="s">
         <v>160</v>
@@ -8983,7 +8964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A39" s="63"/>
       <c r="B39" s="38" t="s">
         <v>161</v>
@@ -8992,7 +8973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A40" s="63"/>
       <c r="B40" s="38" t="s">
         <v>162</v>
@@ -9001,7 +8982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A41" s="63"/>
       <c r="B41" s="38" t="s">
         <v>163</v>
@@ -9010,7 +8991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A42" s="63"/>
       <c r="B42" s="38" t="s">
         <v>164</v>
@@ -9019,7 +9000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A43" s="63"/>
       <c r="B43" s="38" t="s">
         <v>165</v>
@@ -9028,7 +9009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A44" s="63"/>
       <c r="B44" s="38" t="s">
         <v>166</v>
@@ -9037,7 +9018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A45" s="63"/>
       <c r="B45" s="38" t="s">
         <v>167</v>
@@ -9046,7 +9027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A46" s="63"/>
       <c r="B46" s="38" t="s">
         <v>168</v>
@@ -9055,7 +9036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A47" s="63"/>
       <c r="B47" s="38" t="s">
         <v>169</v>
@@ -9064,7 +9045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A48" s="63"/>
       <c r="B48" s="38" t="s">
         <v>170</v>
@@ -9073,7 +9054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A49" s="63"/>
       <c r="B49" s="38" t="s">
         <v>171</v>
@@ -9082,7 +9063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A50" s="63"/>
       <c r="B50" s="38" t="s">
         <v>172</v>
@@ -9091,7 +9072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A51" s="63"/>
       <c r="B51" s="38" t="s">
         <v>173</v>
@@ -9100,7 +9081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A52" s="63"/>
       <c r="B52" s="38" t="s">
         <v>174</v>
@@ -9109,7 +9090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A53" s="63"/>
       <c r="B53" s="39" t="s">
         <v>175</v>
@@ -9118,7 +9099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A54" s="63"/>
       <c r="B54" s="39" t="s">
         <v>176</v>
@@ -9127,7 +9108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A55" s="63" t="s">
         <v>177</v>
       </c>
@@ -9138,7 +9119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A56" s="63"/>
       <c r="B56" s="38" t="s">
         <v>179</v>
@@ -9147,7 +9128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A57" s="63"/>
       <c r="B57" s="38" t="s">
         <v>180</v>
@@ -9156,7 +9137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A58" s="63"/>
       <c r="B58" s="38" t="s">
         <v>181</v>
@@ -9165,7 +9146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A59" s="63"/>
       <c r="B59" s="38" t="s">
         <v>182</v>
@@ -9174,7 +9155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A60" s="63"/>
       <c r="B60" s="38" t="s">
         <v>183</v>
@@ -9183,7 +9164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A61" s="63"/>
       <c r="B61" s="38" t="s">
         <v>184</v>
@@ -9192,7 +9173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A62" s="63"/>
       <c r="B62" s="39" t="s">
         <v>185</v>
@@ -9201,7 +9182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A63" s="63" t="s">
         <v>186</v>
       </c>
@@ -9212,7 +9193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A64" s="63"/>
       <c r="B64" s="38" t="s">
         <v>188</v>
@@ -9221,7 +9202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A65" s="63"/>
       <c r="B65" s="38" t="s">
         <v>189</v>
@@ -9230,7 +9211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A66" s="63"/>
       <c r="B66" s="38" t="s">
         <v>190</v>
@@ -9239,7 +9220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A67" s="63"/>
       <c r="B67" s="38" t="s">
         <v>191</v>
@@ -9248,7 +9229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A68" s="63"/>
       <c r="B68" s="38" t="s">
         <v>192</v>
@@ -9257,7 +9238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A69" s="63" t="s">
         <v>193</v>
       </c>
@@ -9268,7 +9249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A70" s="63"/>
       <c r="B70" s="38" t="s">
         <v>195</v>
@@ -9277,7 +9258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A71" s="63"/>
       <c r="B71" s="38" t="s">
         <v>196</v>
@@ -9286,7 +9267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A72" s="63"/>
       <c r="B72" s="38" t="s">
         <v>197</v>
@@ -9295,7 +9276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A73" s="63"/>
       <c r="B73" s="38" t="s">
         <v>198</v>
@@ -9304,7 +9285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A74" s="63"/>
       <c r="B74" s="38" t="s">
         <v>199</v>
@@ -9313,7 +9294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A75" s="63"/>
       <c r="B75" s="38" t="s">
         <v>200</v>
@@ -9322,7 +9303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A76" s="63"/>
       <c r="B76" s="38" t="s">
         <v>201</v>
@@ -9331,7 +9312,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A77" s="63"/>
       <c r="B77" s="38" t="s">
         <v>202</v>
@@ -9340,7 +9321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A78" s="63"/>
       <c r="B78" s="38" t="s">
         <v>203</v>
@@ -9349,7 +9330,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A79" s="63"/>
       <c r="B79" s="38" t="s">
         <v>204</v>
@@ -9358,7 +9339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A80" s="63"/>
       <c r="B80" s="38" t="s">
         <v>205</v>
@@ -9367,7 +9348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A81" s="63"/>
       <c r="B81" s="38" t="s">
         <v>206</v>
@@ -9376,7 +9357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A82" s="63"/>
       <c r="B82" s="38" t="s">
         <v>207</v>
@@ -9385,7 +9366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A83" s="63"/>
       <c r="B83" s="38" t="s">
         <v>208</v>
@@ -9394,7 +9375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A84" s="63"/>
       <c r="B84" s="38" t="s">
         <v>209</v>
@@ -9403,7 +9384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A85" s="63" t="s">
         <v>210</v>
       </c>
@@ -9414,7 +9395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A86" s="63"/>
       <c r="B86" s="38" t="s">
         <v>212</v>
@@ -9423,7 +9404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A87" s="63"/>
       <c r="B87" s="38" t="s">
         <v>213</v>
@@ -9432,7 +9413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A88" s="63"/>
       <c r="B88" s="38" t="s">
         <v>214</v>
@@ -9441,7 +9422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A89" s="63"/>
       <c r="B89" s="38" t="s">
         <v>215</v>
@@ -9450,7 +9431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A90" s="63"/>
       <c r="B90" s="39" t="s">
         <v>216</v>
@@ -9459,7 +9440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A91" s="63" t="s">
         <v>217</v>
       </c>
@@ -9470,7 +9451,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A92" s="63"/>
       <c r="B92" s="38" t="s">
         <v>219</v>
@@ -9479,7 +9460,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A93" s="63"/>
       <c r="B93" s="38" t="s">
         <v>220</v>
@@ -9488,7 +9469,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A94" s="63"/>
       <c r="B94" s="38" t="s">
         <v>221</v>
@@ -9497,7 +9478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A95" s="63"/>
       <c r="B95" s="39" t="s">
         <v>222</v>
@@ -9506,7 +9487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A96" s="63"/>
       <c r="B96" s="39" t="s">
         <v>223</v>
@@ -9515,7 +9496,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A97" s="63" t="s">
         <v>224</v>
       </c>
@@ -9526,7 +9507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A98" s="63"/>
       <c r="B98" s="38" t="s">
         <v>226</v>
@@ -9535,7 +9516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A99" s="63"/>
       <c r="B99" s="38" t="s">
         <v>227</v>
@@ -9544,7 +9525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A100" s="63"/>
       <c r="B100" s="38" t="s">
         <v>228</v>
@@ -9553,7 +9534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A101" s="63"/>
       <c r="B101" s="38" t="s">
         <v>229</v>
@@ -9562,7 +9543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A102" s="63" t="s">
         <v>230</v>
       </c>
@@ -9573,7 +9554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A103" s="63"/>
       <c r="B103" s="38" t="s">
         <v>232</v>
@@ -9582,7 +9563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A104" s="37" t="s">
         <v>233</v>
       </c>
@@ -9593,7 +9574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A105" s="63" t="s">
         <v>235</v>
       </c>
@@ -9604,7 +9585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A106" s="63"/>
       <c r="B106" s="38" t="s">
         <v>237</v>
@@ -9613,7 +9594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A107" s="37" t="s">
         <v>238</v>
       </c>
